--- a/Presentation/AkinsoftExcellOkuma/Server/uploads/test.xlsx
+++ b/Presentation/AkinsoftExcellOkuma/Server/uploads/test.xlsx
@@ -21,10 +21,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="2">
   <si>
-    <t>sdada</t>
+    <t>asdsad</t>
   </si>
   <si>
-    <t>asdsad</t>
+    <t>TEST</t>
   </si>
 </sst>
 </file>
@@ -344,8 +344,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -420,7 +420,7 @@
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2">
         <v>4</v>
@@ -429,7 +429,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2">
         <v>20</v>
@@ -456,7 +456,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N2">
         <v>30</v>
@@ -488,7 +488,7 @@
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B3">
         <v>4</v>
@@ -497,10 +497,10 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F3">
         <v>4</v>
@@ -524,7 +524,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N3">
         <v>30</v>
@@ -556,7 +556,7 @@
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B4">
         <v>4</v>
@@ -565,10 +565,10 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F4">
         <v>4</v>
@@ -592,7 +592,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N4">
         <v>30</v>
@@ -624,7 +624,7 @@
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -633,7 +633,7 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5">
         <v>20</v>
@@ -660,7 +660,7 @@
         <v>0</v>
       </c>
       <c r="M5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N5">
         <v>30</v>

--- a/Presentation/AkinsoftExcellOkuma/Server/uploads/test.xlsx
+++ b/Presentation/AkinsoftExcellOkuma/Server/uploads/test.xlsx
@@ -345,7 +345,7 @@
   <dimension ref="A1:V5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -423,7 +423,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2">
         <v>1</v>

--- a/Presentation/AkinsoftExcellOkuma/Server/uploads/test.xlsx
+++ b/Presentation/AkinsoftExcellOkuma/Server/uploads/test.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CE7B87E-5EF2-42CF-A586-88A2C46A9AB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
@@ -19,18 +20,84 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="24">
   <si>
     <t>asdsad</t>
   </si>
   <si>
     <t>TEST</t>
+  </si>
+  <si>
+    <t>Ay Kodu</t>
+  </si>
+  <si>
+    <t>Sicil No</t>
+  </si>
+  <si>
+    <t>İşyeri Kodu</t>
+  </si>
+  <si>
+    <t>İş Yeri Adı</t>
+  </si>
+  <si>
+    <t>Çalışılan Gün</t>
+  </si>
+  <si>
+    <t>Hafta Sonu</t>
+  </si>
+  <si>
+    <t>Genel Tatil</t>
+  </si>
+  <si>
+    <t>Raporlu</t>
+  </si>
+  <si>
+    <t>Ücretli İzin</t>
+  </si>
+  <si>
+    <t>Ücretsiz İzin</t>
+  </si>
+  <si>
+    <t>Yıllık İzin</t>
+  </si>
+  <si>
+    <t>Gelmedi</t>
+  </si>
+  <si>
+    <t>Eksik Gün</t>
+  </si>
+  <si>
+    <t>Toplam Prim Günü</t>
+  </si>
+  <si>
+    <t>Toplam Ücret Günü</t>
+  </si>
+  <si>
+    <t>Hafta İçi Mesai</t>
+  </si>
+  <si>
+    <t>Hafta Sonu Mesai</t>
+  </si>
+  <si>
+    <t>Bayram Mesai</t>
+  </si>
+  <si>
+    <t>Hafta İçi Gece M.</t>
+  </si>
+  <si>
+    <t>Hafta Sonu Gece M.</t>
+  </si>
+  <si>
+    <t>Bayram Gece M.</t>
+  </si>
+  <si>
+    <t>Toplam Uzaktan Ç</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -341,81 +408,100 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="V2" sqref="V2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="22.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1">
-        <v>1</v>
-      </c>
-      <c r="B1">
-        <v>2</v>
-      </c>
-      <c r="C1">
+      <c r="A1" t="s">
         <v>3</v>
       </c>
-      <c r="D1">
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
         <v>4</v>
       </c>
-      <c r="E1">
+      <c r="D1" t="s">
         <v>5</v>
       </c>
-      <c r="F1">
+      <c r="E1" t="s">
         <v>6</v>
       </c>
-      <c r="G1">
+      <c r="F1" t="s">
         <v>7</v>
       </c>
-      <c r="H1">
+      <c r="G1" t="s">
         <v>8</v>
       </c>
-      <c r="I1">
+      <c r="H1" t="s">
         <v>9</v>
       </c>
-      <c r="J1">
+      <c r="I1" t="s">
         <v>10</v>
       </c>
-      <c r="K1">
+      <c r="J1" t="s">
         <v>11</v>
       </c>
-      <c r="L1">
+      <c r="K1" t="s">
         <v>12</v>
       </c>
-      <c r="M1">
+      <c r="L1" t="s">
         <v>13</v>
       </c>
-      <c r="N1">
+      <c r="M1" t="s">
         <v>14</v>
       </c>
-      <c r="O1">
+      <c r="N1" t="s">
         <v>15</v>
       </c>
-      <c r="P1">
+      <c r="O1" t="s">
         <v>16</v>
       </c>
-      <c r="Q1">
+      <c r="P1" t="s">
         <v>17</v>
       </c>
-      <c r="R1">
+      <c r="Q1" t="s">
         <v>18</v>
       </c>
-      <c r="S1">
+      <c r="R1" t="s">
         <v>19</v>
       </c>
-      <c r="T1">
+      <c r="S1" t="s">
         <v>20</v>
       </c>
-      <c r="U1">
+      <c r="T1" t="s">
         <v>21</v>
       </c>
-      <c r="V1">
+      <c r="U1" t="s">
         <v>22</v>
+      </c>
+      <c r="V1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
